--- a/classification/droptc/drone-sbert/unfreeze/67351593/prediction.xlsx
+++ b/classification/droptc/drone-sbert/unfreeze/67351593/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9829145073890686</v>
+        <v>0.997062623500824</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9118503928184509</v>
+        <v>0.9857144951820374</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9382598400115967</v>
+        <v>0.9970561265945435</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9966629147529602</v>
+        <v>0.9970777034759521</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9966138005256653</v>
+        <v>0.996997594833374</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9966856837272644</v>
+        <v>0.9969780445098877</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.996692419052124</v>
+        <v>0.9969940185546875</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4518999457359314</v>
+        <v>0.9968825578689575</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9966979026794434</v>
+        <v>0.9970483183860779</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9552963376045227</v>
+        <v>0.99693763256073</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9967047572135925</v>
+        <v>0.997002899646759</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9966723918914795</v>
+        <v>0.9805791974067688</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9826052188873291</v>
+        <v>0.9969733953475952</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9775935411453247</v>
+        <v>0.9968896508216858</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.996708869934082</v>
+        <v>0.9970376491546631</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9329344630241394</v>
+        <v>0.9970236420631409</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9756017327308655</v>
+        <v>0.9873281121253967</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8292694687843323</v>
+        <v>0.9970425963401794</v>
       </c>
     </row>
     <row r="20">
@@ -987,14 +987,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9966451525688171</v>
+        <v>0.9879953265190125</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.976395845413208</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9167736172676086</v>
+        <v>0.9656621813774109</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9966511130332947</v>
+        <v>0.9896296858787537</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.974984884262085</v>
+        <v>0.9970447421073914</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9967207312583923</v>
+        <v>0.9969943761825562</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.982795774936676</v>
+        <v>0.997033953666687</v>
       </c>
     </row>
     <row r="27">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9453577995300293</v>
+        <v>0.9969512224197388</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9965952038764954</v>
+        <v>0.9970422387123108</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9966863989830017</v>
+        <v>0.9970083832740784</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.996673583984375</v>
+        <v>0.8930869102478027</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9967097043991089</v>
+        <v>0.9970601201057434</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9966115355491638</v>
+        <v>0.996997594833374</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9966490864753723</v>
+        <v>0.9969154596328735</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9966953992843628</v>
+        <v>0.989642322063446</v>
       </c>
     </row>
     <row r="35">
@@ -1407,14 +1407,14 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9812316298484802</v>
+        <v>0.996439516544342</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9752750396728516</v>
+        <v>0.997043788433075</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9966840147972107</v>
+        <v>0.9970502853393555</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E38" t="b">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9966302514076233</v>
+        <v>0.9893425703048706</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9966884255409241</v>
+        <v>0.996798574924469</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9966676831245422</v>
+        <v>0.9970508813858032</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9966124892234802</v>
+        <v>0.9970036149024963</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9824802279472351</v>
+        <v>0.9969118237495422</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.975762665271759</v>
+        <v>0.9848740100860596</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9823974370956421</v>
+        <v>0.9969547986984253</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.974984884262085</v>
+        <v>0.9527457356452942</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9966895580291748</v>
+        <v>0.9970154762268066</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9963002800941467</v>
+        <v>0.9969726800918579</v>
       </c>
     </row>
     <row r="48">
@@ -1771,14 +1771,14 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9967150688171387</v>
+        <v>0.9435914158821106</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9966436624526978</v>
+        <v>0.9848809242248535</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8266433477401733</v>
+        <v>0.984992504119873</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9967221617698669</v>
+        <v>0.9970454573631287</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9970165491104126</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.982795774936676</v>
+        <v>0.996997594833374</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9966352581977844</v>
+        <v>0.9658825397491455</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9966995120048523</v>
+        <v>0.9970212578773499</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9708002209663391</v>
+        <v>0.9896710515022278</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9965787529945374</v>
+        <v>0.9969871640205383</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9965407252311707</v>
+        <v>0.9896296858787537</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9963862895965576</v>
+        <v>0.9769104719161987</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9764344692230225</v>
+        <v>0.9970239996910095</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9967247843742371</v>
+        <v>0.9862508773803711</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9825909733772278</v>
+        <v>0.9770348072052002</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9970376491546631</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.982720673084259</v>
+        <v>0.97705078125</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9966697096824646</v>
+        <v>0.9969215989112854</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9965511560440063</v>
+        <v>0.9970836043357849</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9966775178909302</v>
+        <v>0.9969748258590698</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9848529100418091</v>
+        <v>0.9969503283500671</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9966891407966614</v>
+        <v>0.3844335377216339</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9966795444488525</v>
+        <v>0.9851572513580322</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9965894222259521</v>
+        <v>0.9970086216926575</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9966921806335449</v>
+        <v>0.9894412755966187</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9966788291931152</v>
+        <v>0.9970398545265198</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9772924184799194</v>
+        <v>0.9502401351928711</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9964170455932617</v>
+        <v>0.9970548152923584</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9783245921134949</v>
+        <v>0.876454770565033</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.974806547164917</v>
+        <v>0.9969780445098877</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.982795774936676</v>
+        <v>0.9969780445098877</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9969780445098877</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9966781139373779</v>
+        <v>0.9970180988311768</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.982560932636261</v>
+        <v>0.9970542192459106</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6487963795661926</v>
+        <v>0.9970360994338989</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9966936111450195</v>
+        <v>0.9970505237579346</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9966999888420105</v>
+        <v>0.9970192909240723</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9565236568450928</v>
+        <v>0.9969513416290283</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9966791868209839</v>
+        <v>0.9970020651817322</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9967026114463806</v>
+        <v>0.9969959259033203</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9772924184799194</v>
+        <v>0.9969940185546875</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9966939687728882</v>
+        <v>0.9894869327545166</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9967097043991089</v>
+        <v>0.9894402623176575</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9966855645179749</v>
+        <v>0.9968980550765991</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9967001080513</v>
+        <v>0.9969357252120972</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9966393709182739</v>
+        <v>0.9894891381263733</v>
       </c>
     </row>
     <row r="94">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3063,10 +3063,10 @@
         </is>
       </c>
       <c r="E94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9244282841682434</v>
+        <v>0.7498410940170288</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9823355078697205</v>
+        <v>0.9894915819168091</v>
       </c>
     </row>
     <row r="96">
@@ -3115,14 +3115,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8099486827850342</v>
+        <v>0.9970038533210754</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9954828023910522</v>
+        <v>0.9969822764396667</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9824329614639282</v>
+        <v>0.9896522164344788</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8120047450065613</v>
+        <v>0.9969780445098877</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9966451525688171</v>
+        <v>0.9970523118972778</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9824152588844299</v>
+        <v>0.7659096121788025</v>
       </c>
     </row>
     <row r="102">
@@ -3283,14 +3283,14 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.996684730052948</v>
+        <v>0.575404942035675</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9763196706771851</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9966006875038147</v>
+        <v>0.9969305396080017</v>
       </c>
     </row>
     <row r="105">
@@ -3367,14 +3367,14 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9967014193534851</v>
+        <v>0.9570961594581604</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9967327117919922</v>
+        <v>0.9769104719161987</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9564133882522583</v>
+        <v>0.9735723733901978</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.967770516872406</v>
+        <v>0.9903890490531921</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9967008233070374</v>
+        <v>0.9895169138908386</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.974984884262085</v>
+        <v>0.9970479607582092</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9966691136360168</v>
+        <v>0.9970030188560486</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9967221617698669</v>
+        <v>0.9895269870758057</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9969192743301392</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9757009148597717</v>
+        <v>0.9970328807830811</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9312236309051514</v>
+        <v>0.9970611929893494</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9827903509140015</v>
+        <v>0.9667559266090393</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9558624625205994</v>
+        <v>0.9967597126960754</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9967114925384521</v>
+        <v>0.9894866943359375</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9965975880622864</v>
+        <v>0.9970616698265076</v>
       </c>
     </row>
     <row r="120">
@@ -3782,19 +3782,19 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E120" t="b">
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9966805577278137</v>
+        <v>0.9895169138908386</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9967266321182251</v>
+        <v>0.9970082640647888</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.8575327396392822</v>
+        <v>0.9970182180404663</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9743283987045288</v>
+        <v>0.6095890998840332</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9821743965148926</v>
+        <v>0.9967683553695679</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9966920614242554</v>
+        <v>0.9969562292098999</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9827903509140015</v>
+        <v>0.9970230460166931</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9964710474014282</v>
+        <v>0.9848478436470032</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9766132831573486</v>
+        <v>0.985601007938385</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9967086315155029</v>
+        <v>0.9896509647369385</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9966891407966614</v>
+        <v>0.9969726800918579</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9961899518966675</v>
+        <v>0.9969780445098877</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E132" t="b">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9966492056846619</v>
+        <v>0.9860207438468933</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9966968297958374</v>
+        <v>0.996927797794342</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9967142343521118</v>
+        <v>0.9769104719161987</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6451403498649597</v>
+        <v>0.9969780445098877</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9892041087150574</v>
+        <v>0.9850768446922302</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9814565181732178</v>
+        <v>0.9016757011413574</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.957895040512085</v>
+        <v>0.9769063591957092</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9967017769813538</v>
+        <v>0.9970381259918213</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9966475367546082</v>
+        <v>0.9879960417747498</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.996677041053772</v>
+        <v>0.9763196706771851</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9775474071502686</v>
+        <v>0.6751026511192322</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9967137575149536</v>
+        <v>0.9089648127555847</v>
       </c>
     </row>
     <row r="144">
@@ -4459,14 +4459,14 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.996673583984375</v>
+        <v>0.9193081855773926</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9966505169868469</v>
+        <v>0.9970234036445618</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9966891407966614</v>
+        <v>0.9857836961746216</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9769022464752197</v>
+        <v>0.9659242630004883</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.996665894985199</v>
+        <v>0.9896296858787537</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9965952038764954</v>
+        <v>0.9969154596328735</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9713028073310852</v>
+        <v>0.984992504119873</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9969780445098877</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9970402121543884</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9827903509140015</v>
+        <v>0.9856119155883789</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9965988993644714</v>
+        <v>0.9969732761383057</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9967076778411865</v>
+        <v>0.9970440268516541</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9967167973518372</v>
+        <v>0.9969263672828674</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9911649823188782</v>
+        <v>0.9970644116401672</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.9895169138908386</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.99669349193573</v>
+        <v>0.997006356716156</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9775236845016479</v>
+        <v>0.9970247149467468</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.996650755405426</v>
+        <v>0.9405085444450378</v>
       </c>
     </row>
     <row r="162">
@@ -4958,19 +4958,19 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9966981410980225</v>
+        <v>0.9854387044906616</v>
       </c>
     </row>
     <row r="163">
@@ -4991,14 +4991,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9776346683502197</v>
+        <v>0.9225243330001831</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9826651811599731</v>
+        <v>0.9970359802246094</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9966662526130676</v>
+        <v>0.9893607497215271</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9966422319412231</v>
+        <v>0.9894402623176575</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9967318773269653</v>
+        <v>0.9848809242248535</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9826921224594116</v>
+        <v>0.9970623850822449</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9303323030471802</v>
+        <v>0.9970853924751282</v>
       </c>
     </row>
     <row r="170">
@@ -5187,14 +5187,14 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9966327548027039</v>
+        <v>0.9372155666351318</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9966757297515869</v>
+        <v>0.9969871640205383</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9966244697570801</v>
+        <v>0.9969210624694824</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9966737031936646</v>
+        <v>0.9969528913497925</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9966579675674438</v>
+        <v>0.9969780445098877</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.996565043926239</v>
+        <v>0.9970014691352844</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9825261831283569</v>
+        <v>0.984410285949707</v>
       </c>
     </row>
     <row r="177">
@@ -5378,19 +5378,19 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9766876101493835</v>
+        <v>0.997040331363678</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9825261831283569</v>
+        <v>0.9969910383224487</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9967001080513</v>
+        <v>0.9970171451568604</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9967018961906433</v>
+        <v>0.9856145977973938</v>
       </c>
     </row>
     <row r="181">
@@ -5490,19 +5490,19 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E181" t="b">
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9966375827789307</v>
+        <v>0.8739845156669617</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9766132831573486</v>
+        <v>0.996916651725769</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7210216522216797</v>
+        <v>0.9969817996025085</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9966666102409363</v>
+        <v>0.9074879288673401</v>
       </c>
     </row>
     <row r="185">
@@ -5607,14 +5607,14 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.6617893576622009</v>
+        <v>0.9875011444091797</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9780910611152649</v>
+        <v>0.9969043135643005</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8920709490776062</v>
+        <v>0.997058629989624</v>
       </c>
     </row>
     <row r="188">
@@ -5691,14 +5691,14 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9966543912887573</v>
+        <v>0.896145761013031</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9967195391654968</v>
+        <v>0.9970722198486328</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9558508396148682</v>
+        <v>0.9970510005950928</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9964839220046997</v>
+        <v>0.9969331026077271</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9966986775398254</v>
+        <v>0.9674782156944275</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9773579835891724</v>
+        <v>0.9970635771751404</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9966816306114197</v>
+        <v>0.9970670342445374</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.996712327003479</v>
+        <v>0.9970048069953918</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9966762065887451</v>
+        <v>0.997033953666687</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9770747423171997</v>
+        <v>0.9970853924751282</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.8252741694450378</v>
+        <v>0.9849767684936523</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9553600549697876</v>
+        <v>0.9644753336906433</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7293189167976379</v>
+        <v>0.9969936609268188</v>
       </c>
     </row>
     <row r="201">
@@ -6055,14 +6055,14 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9743283987045288</v>
+        <v>0.984535276889801</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9824152588844299</v>
+        <v>0.9894866943359375</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9966855645179749</v>
+        <v>0.9969481825828552</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9777318835258484</v>
+        <v>0.9970659613609314</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9830195307731628</v>
+        <v>0.989754855632782</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9966842532157898</v>
+        <v>0.9970324039459229</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9966956377029419</v>
+        <v>0.9970736503601074</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8182406425476074</v>
+        <v>0.9970062375068665</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9966769218444824</v>
+        <v>0.9895368814468384</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9967126846313477</v>
+        <v>0.9970167875289917</v>
       </c>
     </row>
   </sheetData>
